--- a/DataGenerator/XLSXS/TierColorData.xlsx
+++ b/DataGenerator/XLSXS/TierColorData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunja\Documents\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7027113-9D9C-40EF-9D5F-33D416C3C418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8446A3-4B6B-451D-A9AA-D50F69BBC67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="1020" windowWidth="21600" windowHeight="13335" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,40 +43,40 @@
     <t>long</t>
   </si>
   <si>
-    <t>eItemTier</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
     <t>NORMAL</t>
   </si>
   <si>
-    <t>#000000</t>
-  </si>
-  <si>
     <t>RARE</t>
-  </si>
-  <si>
-    <t>#222222</t>
   </si>
   <si>
     <t>UNIQUE</t>
   </si>
   <si>
-    <t>#444444</t>
-  </si>
-  <si>
     <t>EPIC</t>
-  </si>
-  <si>
-    <t>#888888</t>
   </si>
   <si>
     <t>LEGEND</t>
   </si>
   <si>
-    <t>#aaaaaa</t>
+    <t>eTier</t>
+  </si>
+  <si>
+    <t>#D3D3D3</t>
+  </si>
+  <si>
+    <t>#325928</t>
+  </si>
+  <si>
+    <t>#B9E0FD</t>
+  </si>
+  <si>
+    <t>#8977AD</t>
+  </si>
+  <si>
+    <t>#FFD400</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -535,10 +535,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -569,10 +569,10 @@
         <v>1400000</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -603,10 +603,10 @@
         <v>1400001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -637,10 +637,10 @@
         <v>1400002</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -671,10 +671,10 @@
         <v>1400003</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -705,7 +705,7 @@
         <v>1400004</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -28513,5 +28513,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>